--- a/gf_data.xlsx
+++ b/gf_data.xlsx
@@ -391,7 +391,7 @@
       </c>
       <c r="C2" s="2">
         <f>TODAY()</f>
-        <v>44737</v>
+        <v>44763</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -424,8 +424,8 @@
         <v>5</v>
       </c>
       <c r="C5" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B5)"),251.29)</f>
-        <v>251.29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B5)"),253.47)</f>
+        <v>253.47</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -436,8 +436,8 @@
         <v>6</v>
       </c>
       <c r="C6" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B6)/1000000000"),20.238652307)</f>
-        <v>20.23865231</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B6)/1000000000"),20.414233101)</f>
+        <v>20.4142331</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
@@ -448,8 +448,8 @@
         <v>7</v>
       </c>
       <c r="C7" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B7)"),26.56)</f>
-        <v>26.56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B7)"),26.79)</f>
+        <v>26.79</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -1862,6 +1862,230 @@
       <c r="C105" s="12">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668849.0)</f>
         <v>668849</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44739.66666666667)</f>
+        <v>44739.66667</v>
+      </c>
+      <c r="B106" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.16)</f>
+        <v>248.16</v>
+      </c>
+      <c r="C106" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),332670.0)</f>
+        <v>332670</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44740.66666666667)</f>
+        <v>44740.66667</v>
+      </c>
+      <c r="B107" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.41)</f>
+        <v>239.41</v>
+      </c>
+      <c r="C107" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320265.0)</f>
+        <v>320265</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44741.66666666667)</f>
+        <v>44741.66667</v>
+      </c>
+      <c r="B108" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.14)</f>
+        <v>240.14</v>
+      </c>
+      <c r="C108" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360665.0)</f>
+        <v>360665</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44742.66666666667)</f>
+        <v>44742.66667</v>
+      </c>
+      <c r="B109" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.83)</f>
+        <v>241.83</v>
+      </c>
+      <c r="C109" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),533191.0)</f>
+        <v>533191</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44743.66666666667)</f>
+        <v>44743.66667</v>
+      </c>
+      <c r="B110" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.28)</f>
+        <v>244.28</v>
+      </c>
+      <c r="C110" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),319159.0)</f>
+        <v>319159</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44747.66666666667)</f>
+        <v>44747.66667</v>
+      </c>
+      <c r="B111" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.21)</f>
+        <v>241.21</v>
+      </c>
+      <c r="C111" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366698.0)</f>
+        <v>366698</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44748.66666666667)</f>
+        <v>44748.66667</v>
+      </c>
+      <c r="B112" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.77)</f>
+        <v>241.77</v>
+      </c>
+      <c r="C112" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349285.0)</f>
+        <v>349285</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44749.66666666667)</f>
+        <v>44749.66667</v>
+      </c>
+      <c r="B113" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.02)</f>
+        <v>245.02</v>
+      </c>
+      <c r="C113" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367594.0)</f>
+        <v>367594</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44750.66666666667)</f>
+        <v>44750.66667</v>
+      </c>
+      <c r="B114" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.63)</f>
+        <v>242.63</v>
+      </c>
+      <c r="C114" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),307020.0)</f>
+        <v>307020</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44753.66666666667)</f>
+        <v>44753.66667</v>
+      </c>
+      <c r="B115" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.37)</f>
+        <v>244.37</v>
+      </c>
+      <c r="C115" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439994.0)</f>
+        <v>439994</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44754.66666666667)</f>
+        <v>44754.66667</v>
+      </c>
+      <c r="B116" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.75)</f>
+        <v>237.75</v>
+      </c>
+      <c r="C116" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376703.0)</f>
+        <v>376703</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44755.66666666667)</f>
+        <v>44755.66667</v>
+      </c>
+      <c r="B117" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.27)</f>
+        <v>238.27</v>
+      </c>
+      <c r="C117" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260903.0)</f>
+        <v>260903</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44756.66666666667)</f>
+        <v>44756.66667</v>
+      </c>
+      <c r="B118" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.8)</f>
+        <v>235.8</v>
+      </c>
+      <c r="C118" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),332700.0)</f>
+        <v>332700</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44757.66666666667)</f>
+        <v>44757.66667</v>
+      </c>
+      <c r="B119" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.69)</f>
+        <v>240.69</v>
+      </c>
+      <c r="C119" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338878.0)</f>
+        <v>338878</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44760.66666666667)</f>
+        <v>44760.66667</v>
+      </c>
+      <c r="B120" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.77)</f>
+        <v>238.77</v>
+      </c>
+      <c r="C120" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254069.0)</f>
+        <v>254069</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44761.66666666667)</f>
+        <v>44761.66667</v>
+      </c>
+      <c r="B121" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.57)</f>
+        <v>247.57</v>
+      </c>
+      <c r="C121" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387155.0)</f>
+        <v>387155</v>
       </c>
     </row>
   </sheetData>

--- a/gf_data.xlsx
+++ b/gf_data.xlsx
@@ -25,7 +25,7 @@
     <t>ticker</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>SPY</t>
   </si>
   <si>
     <t>price</t>
@@ -391,7 +391,7 @@
       </c>
       <c r="C2" s="2">
         <f>TODAY()</f>
-        <v>44763</v>
+        <v>44782</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -424,8 +424,8 @@
         <v>5</v>
       </c>
       <c r="C5" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B5)"),253.47)</f>
-        <v>253.47</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B5)"),411.35)</f>
+        <v>411.35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -436,8 +436,8 @@
         <v>6</v>
       </c>
       <c r="C6" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B6)/1000000000"),20.414233101)</f>
-        <v>20.4142331</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B6)/1000000000"),371.284885724)</f>
+        <v>371.2848857</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
@@ -447,9 +447,9 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B7)"),26.79)</f>
-        <v>26.79</v>
+      <c r="C7" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(C4,$B7)"),"#N/A")</f>
+        <v>#N/A</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -490,12 +490,12 @@
         <v>44599.66667</v>
       </c>
       <c r="B10" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.85)</f>
-        <v>294.85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),447.26)</f>
+        <v>447.26</v>
       </c>
       <c r="C10" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),595249.0)</f>
-        <v>595249</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.4472859E7)</f>
+        <v>84472859</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -507,12 +507,12 @@
         <v>44600.66667</v>
       </c>
       <c r="B11" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.66)</f>
-        <v>302.66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),450.94)</f>
+        <v>450.94</v>
       </c>
       <c r="C11" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1018713.0)</f>
-        <v>1018713</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1012036E7)</f>
+        <v>81012036</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -524,12 +524,12 @@
         <v>44601.66667</v>
       </c>
       <c r="B12" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.9)</f>
-        <v>302.9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),457.54)</f>
+        <v>457.54</v>
       </c>
       <c r="C12" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),527708.0)</f>
-        <v>527708</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2589929E7)</f>
+        <v>92589929</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -541,12 +541,12 @@
         <v>44602.66667</v>
       </c>
       <c r="B13" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),291.12)</f>
-        <v>291.12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.32)</f>
+        <v>449.32</v>
       </c>
       <c r="C13" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),572326.0)</f>
-        <v>572326</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.40103712E8)</f>
+        <v>140103712</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -558,12 +558,12 @@
         <v>44603.66667</v>
       </c>
       <c r="B14" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.75)</f>
-        <v>288.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),440.46)</f>
+        <v>440.46</v>
       </c>
       <c r="C14" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),580751.0)</f>
-        <v>580751</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.53214597E8)</f>
+        <v>153214597</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
@@ -575,12 +575,12 @@
         <v>44606.66667</v>
       </c>
       <c r="B15" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.58)</f>
-        <v>288.58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.02)</f>
+        <v>439.02</v>
       </c>
       <c r="C15" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),620229.0)</f>
-        <v>620229</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.23006262E8)</f>
+        <v>123006262</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -592,12 +592,12 @@
         <v>44607.66667</v>
       </c>
       <c r="B16" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.99)</f>
-        <v>296.99</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.1)</f>
+        <v>446.1</v>
       </c>
       <c r="C16" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),574206.0)</f>
-        <v>574206</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8659503E7)</f>
+        <v>88659503</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -609,12 +609,12 @@
         <v>44608.66667</v>
       </c>
       <c r="B17" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.23)</f>
-        <v>298.23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.6)</f>
+        <v>446.6</v>
       </c>
       <c r="C17" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601529.0)</f>
-        <v>601529</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.4863585E7)</f>
+        <v>84863585</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -626,12 +626,12 @@
         <v>44609.66667</v>
       </c>
       <c r="B18" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.5)</f>
-        <v>286.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.06)</f>
+        <v>437.06</v>
       </c>
       <c r="C18" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),535070.0)</f>
-        <v>535070</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.02259108E8)</f>
+        <v>102259108</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -643,12 +643,12 @@
         <v>44610.66667</v>
       </c>
       <c r="B19" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.23)</f>
-        <v>288.23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),434.23)</f>
+        <v>434.23</v>
       </c>
       <c r="C19" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435641.0)</f>
-        <v>435641</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.32642896E8)</f>
+        <v>132642896</v>
       </c>
       <c r="D19" s="8"/>
       <c r="F19" s="4"/>
@@ -659,12 +659,12 @@
         <v>44614.66667</v>
       </c>
       <c r="B20" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.8)</f>
-        <v>281.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.57)</f>
+        <v>429.57</v>
       </c>
       <c r="C20" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),682591.0)</f>
-        <v>682591</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2439183E8)</f>
+        <v>124391830</v>
       </c>
       <c r="D20" s="8"/>
       <c r="F20" s="8"/>
@@ -675,12 +675,12 @@
         <v>44615.66667</v>
       </c>
       <c r="B21" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.57)</f>
-        <v>273.57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.95)</f>
+        <v>421.95</v>
       </c>
       <c r="C21" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),570488.0)</f>
-        <v>570488</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.32578005E8)</f>
+        <v>132578005</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -693,12 +693,12 @@
         <v>44616.66667</v>
       </c>
       <c r="B22" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.39)</f>
-        <v>281.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.3)</f>
+        <v>428.3</v>
       </c>
       <c r="C22" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1064708.0)</f>
-        <v>1064708</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.13942946E8)</f>
+        <v>213942946</v>
       </c>
       <c r="F22" s="15"/>
     </row>
@@ -708,12 +708,12 @@
         <v>44617.66667</v>
       </c>
       <c r="B23" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.54)</f>
-        <v>286.54</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.75)</f>
+        <v>437.75</v>
       </c>
       <c r="C23" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),833450.0)</f>
-        <v>833450</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.21804459E8)</f>
+        <v>121804459</v>
       </c>
     </row>
     <row r="24">
@@ -722,12 +722,12 @@
         <v>44620.66667</v>
       </c>
       <c r="B24" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.42)</f>
-        <v>280.42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.63)</f>
+        <v>436.63</v>
       </c>
       <c r="C24" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),947396.0)</f>
-        <v>947396</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.45615029E8)</f>
+        <v>145615029</v>
       </c>
     </row>
     <row r="25">
@@ -736,12 +736,12 @@
         <v>44621.66667</v>
       </c>
       <c r="B25" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.46)</f>
-        <v>274.46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.98)</f>
+        <v>429.98</v>
       </c>
       <c r="C25" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),640500.0)</f>
-        <v>640500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.37785908E8)</f>
+        <v>137785908</v>
       </c>
     </row>
     <row r="26">
@@ -750,12 +750,12 @@
         <v>44622.66667</v>
       </c>
       <c r="B26" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.98)</f>
-        <v>283.98</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.89)</f>
+        <v>437.89</v>
       </c>
       <c r="C26" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),942861.0)</f>
-        <v>942861</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.17726525E8)</f>
+        <v>117726525</v>
       </c>
     </row>
     <row r="27">
@@ -764,12 +764,12 @@
         <v>44623.66667</v>
       </c>
       <c r="B27" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.07)</f>
-        <v>279.07</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.71)</f>
+        <v>435.71</v>
       </c>
       <c r="C27" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513780.0)</f>
-        <v>513780</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.05501715E8)</f>
+        <v>105501715</v>
       </c>
     </row>
     <row r="28">
@@ -778,12 +778,12 @@
         <v>44624.66667</v>
       </c>
       <c r="B28" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.84)</f>
-        <v>269.84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),432.17)</f>
+        <v>432.17</v>
       </c>
       <c r="C28" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),646185.0)</f>
-        <v>646185</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.14083256E8)</f>
+        <v>114083256</v>
       </c>
     </row>
     <row r="29">
@@ -792,12 +792,12 @@
         <v>44627.66667</v>
       </c>
       <c r="B29" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.51)</f>
-        <v>257.51</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.43)</f>
+        <v>419.43</v>
       </c>
       <c r="C29" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),844180.0)</f>
-        <v>844180</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3789656E8)</f>
+        <v>137896560</v>
       </c>
     </row>
     <row r="30">
@@ -806,12 +806,12 @@
         <v>44628.66667</v>
       </c>
       <c r="B30" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.44)</f>
-        <v>270.44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.25)</f>
+        <v>416.25</v>
       </c>
       <c r="C30" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1118385.0)</f>
-        <v>1118385</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.64772744E8)</f>
+        <v>164772744</v>
       </c>
     </row>
     <row r="31">
@@ -820,12 +820,12 @@
         <v>44629.66667</v>
       </c>
       <c r="B31" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.2)</f>
-        <v>283.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),427.41)</f>
+        <v>427.41</v>
       </c>
       <c r="C31" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1116729.0)</f>
-        <v>1116729</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.16990765E8)</f>
+        <v>116990765</v>
       </c>
     </row>
     <row r="32">
@@ -834,12 +834,12 @@
         <v>44630.66667</v>
       </c>
       <c r="B32" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.09)</f>
-        <v>281.09</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.48)</f>
+        <v>425.48</v>
       </c>
       <c r="C32" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),713681.0)</f>
-        <v>713681</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.3972655E7)</f>
+        <v>93972655</v>
       </c>
     </row>
     <row r="33">
@@ -848,12 +848,12 @@
         <v>44631.66667</v>
       </c>
       <c r="B33" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.83)</f>
-        <v>279.83</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.07)</f>
+        <v>420.07</v>
       </c>
       <c r="C33" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),535763.0)</f>
-        <v>535763</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.5636277E7)</f>
+        <v>95636277</v>
       </c>
     </row>
     <row r="34">
@@ -862,12 +862,12 @@
         <v>44634.66667</v>
       </c>
       <c r="B34" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.96)</f>
-        <v>273.96</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
+        <v>417</v>
       </c>
       <c r="C34" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),500738.0)</f>
-        <v>500738</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.5729188E7)</f>
+        <v>95729188</v>
       </c>
     </row>
     <row r="35">
@@ -876,12 +876,12 @@
         <v>44635.66667</v>
       </c>
       <c r="B35" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.59)</f>
-        <v>279.59</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),426.17)</f>
+        <v>426.17</v>
       </c>
       <c r="C35" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451779.0)</f>
-        <v>451779</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.06219117E8)</f>
+        <v>106219117</v>
       </c>
     </row>
     <row r="36">
@@ -890,12 +890,12 @@
         <v>44636.66667</v>
       </c>
       <c r="B36" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.12)</f>
-        <v>288.12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.62)</f>
+        <v>435.62</v>
       </c>
       <c r="C36" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),457608.0)</f>
-        <v>457608</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.44954805E8)</f>
+        <v>144954805</v>
       </c>
     </row>
     <row r="37">
@@ -904,12 +904,12 @@
         <v>44637.66667</v>
       </c>
       <c r="B37" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.04)</f>
-        <v>290.04</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.07)</f>
+        <v>441.07</v>
       </c>
       <c r="C37" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341087.0)</f>
-        <v>341087</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0267687E8)</f>
+        <v>102676870</v>
       </c>
     </row>
     <row r="38">
@@ -918,12 +918,12 @@
         <v>44638.66667</v>
       </c>
       <c r="B38" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.35)</f>
-        <v>298.35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.52)</f>
+        <v>444.52</v>
       </c>
       <c r="C38" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),572161.0)</f>
-        <v>572161</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.06345544E8)</f>
+        <v>106345544</v>
       </c>
     </row>
     <row r="39">
@@ -932,12 +932,12 @@
         <v>44641.66667</v>
       </c>
       <c r="B39" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.72)</f>
-        <v>296.72</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.39)</f>
+        <v>444.39</v>
       </c>
       <c r="C39" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275475.0)</f>
-        <v>275475</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8349763E7)</f>
+        <v>88349763</v>
       </c>
     </row>
     <row r="40">
@@ -946,12 +946,12 @@
         <v>44642.66667</v>
       </c>
       <c r="B40" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.45)</f>
-        <v>300.45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.59)</f>
+        <v>449.59</v>
       </c>
       <c r="C40" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329934.0)</f>
-        <v>329934</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4650394E7)</f>
+        <v>74650394</v>
       </c>
     </row>
     <row r="41">
@@ -960,12 +960,12 @@
         <v>44643.66667</v>
       </c>
       <c r="B41" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.48)</f>
-        <v>289.48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.8)</f>
+        <v>443.8</v>
       </c>
       <c r="C41" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),406868.0)</f>
-        <v>406868</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9426098E7)</f>
+        <v>79426098</v>
       </c>
     </row>
     <row r="42">
@@ -974,12 +974,12 @@
         <v>44644.66667</v>
       </c>
       <c r="B42" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.24)</f>
-        <v>296.24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),450.49)</f>
+        <v>450.49</v>
       </c>
       <c r="C42" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),358493.0)</f>
-        <v>358493</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.4736892E7)</f>
+        <v>64736892</v>
       </c>
     </row>
     <row r="43">
@@ -988,12 +988,12 @@
         <v>44645.66667</v>
       </c>
       <c r="B43" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.42)</f>
-        <v>295.42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.69)</f>
+        <v>452.69</v>
       </c>
       <c r="C43" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),334933.0)</f>
-        <v>334933</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.7101324E7)</f>
+        <v>77101324</v>
       </c>
     </row>
     <row r="44">
@@ -1002,12 +1002,12 @@
         <v>44648.66667</v>
       </c>
       <c r="B44" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.66)</f>
-        <v>296.66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),455.91)</f>
+        <v>455.91</v>
       </c>
       <c r="C44" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380481.0)</f>
-        <v>380481</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.8529767E7)</f>
+        <v>68529767</v>
       </c>
     </row>
     <row r="45">
@@ -1016,12 +1016,12 @@
         <v>44649.66667</v>
       </c>
       <c r="B45" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),306.42)</f>
-        <v>306.42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),461.55)</f>
+        <v>461.55</v>
       </c>
       <c r="C45" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473804.0)</f>
-        <v>473804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.6581542E7)</f>
+        <v>86581542</v>
       </c>
     </row>
     <row r="46">
@@ -1030,12 +1030,12 @@
         <v>44650.66667</v>
       </c>
       <c r="B46" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.55)</f>
-        <v>301.55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.7)</f>
+        <v>458.7</v>
       </c>
       <c r="C46" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),461340.0)</f>
-        <v>461340</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9666942E7)</f>
+        <v>79666942</v>
       </c>
     </row>
     <row r="47">
@@ -1044,12 +1044,12 @@
         <v>44651.66667</v>
       </c>
       <c r="B47" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.46)</f>
-        <v>297.46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.64)</f>
+        <v>451.64</v>
       </c>
       <c r="C47" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),646291.0)</f>
-        <v>646291</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.21699948E8)</f>
+        <v>121699948</v>
       </c>
     </row>
     <row r="48">
@@ -1058,12 +1058,12 @@
         <v>44652.66667</v>
       </c>
       <c r="B48" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.46)</f>
-        <v>299.46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.92)</f>
+        <v>452.92</v>
       </c>
       <c r="C48" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),610182.0)</f>
-        <v>610182</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.9048773E7)</f>
+        <v>89048773</v>
       </c>
     </row>
     <row r="49">
@@ -1072,12 +1072,12 @@
         <v>44655.66667</v>
       </c>
       <c r="B49" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.29)</f>
-        <v>300.29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.8)</f>
+        <v>456.8</v>
       </c>
       <c r="C49" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),502546.0)</f>
-        <v>502546</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.9601E7)</f>
+        <v>59601000</v>
       </c>
     </row>
     <row r="50">
@@ -1086,12 +1086,12 @@
         <v>44656.66667</v>
       </c>
       <c r="B50" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.53)</f>
-        <v>297.53</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.03)</f>
+        <v>451.03</v>
       </c>
       <c r="C50" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529346.0)</f>
-        <v>529346</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4214501E7)</f>
+        <v>74214501</v>
       </c>
     </row>
     <row r="51">
@@ -1100,12 +1100,12 @@
         <v>44657.66667</v>
       </c>
       <c r="B51" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.63)</f>
-        <v>294.63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.52)</f>
+        <v>446.52</v>
       </c>
       <c r="C51" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),597165.0)</f>
-        <v>597165</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0689797E8)</f>
+        <v>106897970</v>
       </c>
     </row>
     <row r="52">
@@ -1114,12 +1114,12 @@
         <v>44658.66667</v>
       </c>
       <c r="B52" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.75)</f>
-        <v>294.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.77)</f>
+        <v>448.77</v>
       </c>
       <c r="C52" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),674216.0)</f>
-        <v>674216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.8097214E7)</f>
+        <v>78097214</v>
       </c>
     </row>
     <row r="53">
@@ -1128,12 +1128,12 @@
         <v>44659.66667</v>
       </c>
       <c r="B53" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.68)</f>
-        <v>299.68</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),447.57)</f>
+        <v>447.57</v>
       </c>
       <c r="C53" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),538229.0)</f>
-        <v>538229</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9272711E7)</f>
+        <v>79272711</v>
       </c>
     </row>
     <row r="54">
@@ -1142,12 +1142,12 @@
         <v>44662.66667</v>
       </c>
       <c r="B54" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.79)</f>
-        <v>288.79</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.92)</f>
+        <v>439.92</v>
       </c>
       <c r="C54" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),393700.0)</f>
-        <v>393700</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.9770538E7)</f>
+        <v>89770538</v>
       </c>
     </row>
     <row r="55">
@@ -1156,12 +1156,12 @@
         <v>44663.66667</v>
       </c>
       <c r="B55" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.47)</f>
-        <v>289.47</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.29)</f>
+        <v>438.29</v>
       </c>
       <c r="C55" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),530312.0)</f>
-        <v>530312</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.4363635E7)</f>
+        <v>84363635</v>
       </c>
     </row>
     <row r="56">
@@ -1170,12 +1170,12 @@
         <v>44664.66667</v>
       </c>
       <c r="B56" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.37)</f>
-        <v>295.37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.31)</f>
+        <v>443.31</v>
       </c>
       <c r="C56" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339777.0)</f>
-        <v>339777</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4070394E7)</f>
+        <v>74070394</v>
       </c>
     </row>
     <row r="57">
@@ -1184,12 +1184,12 @@
         <v>44665.66667</v>
       </c>
       <c r="B57" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.1)</f>
-        <v>298.1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.79)</f>
+        <v>437.79</v>
       </c>
       <c r="C57" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475760.0)</f>
-        <v>475760</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.7869451E7)</f>
+        <v>97869451</v>
       </c>
     </row>
     <row r="58">
@@ -1198,12 +1198,12 @@
         <v>44669.66667</v>
       </c>
       <c r="B58" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.04)</f>
-        <v>299.04</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.97)</f>
+        <v>437.97</v>
       </c>
       <c r="C58" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),511201.0)</f>
-        <v>511201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.6002498E7)</f>
+        <v>66002498</v>
       </c>
     </row>
     <row r="59">
@@ -1212,12 +1212,12 @@
         <v>44670.66667</v>
       </c>
       <c r="B59" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),306.35)</f>
-        <v>306.35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.04)</f>
+        <v>445.04</v>
       </c>
       <c r="C59" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),374713.0)</f>
-        <v>374713</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.7821013E7)</f>
+        <v>77821013</v>
       </c>
     </row>
     <row r="60">
@@ -1226,12 +1226,12 @@
         <v>44671.66667</v>
       </c>
       <c r="B60" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.01)</f>
-        <v>310.01</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.71)</f>
+        <v>444.71</v>
       </c>
       <c r="C60" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),524040.0)</f>
-        <v>524040</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.5224449E7)</f>
+        <v>65224449</v>
       </c>
     </row>
     <row r="61">
@@ -1240,12 +1240,12 @@
         <v>44672.66667</v>
       </c>
       <c r="B61" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),304.76)</f>
-        <v>304.76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.06)</f>
+        <v>438.06</v>
       </c>
       <c r="C61" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399763.0)</f>
-        <v>399763</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5417327E7)</f>
+        <v>85417327</v>
       </c>
     </row>
     <row r="62">
@@ -1254,12 +1254,12 @@
         <v>44673.66667</v>
       </c>
       <c r="B62" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.33)</f>
-        <v>293.33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),426.04)</f>
+        <v>426.04</v>
       </c>
       <c r="C62" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385528.0)</f>
-        <v>385528</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.32471772E8)</f>
+        <v>132471772</v>
       </c>
     </row>
     <row r="63">
@@ -1268,12 +1268,12 @@
         <v>44676.66667</v>
       </c>
       <c r="B63" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.2)</f>
-        <v>298.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.51)</f>
+        <v>428.51</v>
       </c>
       <c r="C63" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371175.0)</f>
-        <v>371175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.19647748E8)</f>
+        <v>119647748</v>
       </c>
     </row>
     <row r="64">
@@ -1282,12 +1282,12 @@
         <v>44677.66667</v>
       </c>
       <c r="B64" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),287.48)</f>
-        <v>287.48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.1)</f>
+        <v>416.1</v>
       </c>
       <c r="C64" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309397.0)</f>
-        <v>309397</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.03996312E8)</f>
+        <v>103996312</v>
       </c>
     </row>
     <row r="65">
@@ -1296,12 +1296,12 @@
         <v>44678.66667</v>
       </c>
       <c r="B65" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.78)</f>
-        <v>288.78</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.27)</f>
+        <v>417.27</v>
       </c>
       <c r="C65" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348108.0)</f>
-        <v>348108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2202999E8)</f>
+        <v>122029990</v>
       </c>
     </row>
     <row r="66">
@@ -1310,12 +1310,12 @@
         <v>44679.66667</v>
       </c>
       <c r="B66" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.57)</f>
-        <v>298.57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),427.81)</f>
+        <v>427.81</v>
       </c>
       <c r="C66" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361140.0)</f>
-        <v>361140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.05449088E8)</f>
+        <v>105449088</v>
       </c>
     </row>
     <row r="67">
@@ -1324,12 +1324,12 @@
         <v>44680.66667</v>
       </c>
       <c r="B67" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.55)</f>
-        <v>290.55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
+        <v>412</v>
       </c>
       <c r="C67" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472422.0)</f>
-        <v>472422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.45491088E8)</f>
+        <v>145491088</v>
       </c>
     </row>
     <row r="68">
@@ -1338,12 +1338,12 @@
         <v>44683.66667</v>
       </c>
       <c r="B68" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.04)</f>
-        <v>290.04</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),414.48)</f>
+        <v>414.48</v>
       </c>
       <c r="C68" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),572713.0)</f>
-        <v>572713</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.58312526E8)</f>
+        <v>158312526</v>
       </c>
     </row>
     <row r="69">
@@ -1352,12 +1352,12 @@
         <v>44684.66667</v>
       </c>
       <c r="B69" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.13)</f>
-        <v>281.13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.38)</f>
+        <v>416.38</v>
       </c>
       <c r="C69" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1019767.0)</f>
-        <v>1019767</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0002819E8)</f>
+        <v>100028190</v>
       </c>
     </row>
     <row r="70">
@@ -1366,12 +1366,12 @@
         <v>44685.66667</v>
       </c>
       <c r="B70" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.06)</f>
-        <v>280.06</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.06)</f>
+        <v>429.06</v>
       </c>
       <c r="C70" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),792282.0)</f>
-        <v>792282</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.44247895E8)</f>
+        <v>144247895</v>
       </c>
     </row>
     <row r="71">
@@ -1380,12 +1380,12 @@
         <v>44686.66667</v>
       </c>
       <c r="B71" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.55)</f>
-        <v>259.55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.81)</f>
+        <v>413.81</v>
       </c>
       <c r="C71" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),817103.0)</f>
-        <v>817103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.72929106E8)</f>
+        <v>172929106</v>
       </c>
     </row>
     <row r="72">
@@ -1394,12 +1394,12 @@
         <v>44687.66667</v>
       </c>
       <c r="B72" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.81)</f>
-        <v>252.81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.34)</f>
+        <v>411.34</v>
       </c>
       <c r="C72" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),789467.0)</f>
-        <v>789467</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.51770811E8)</f>
+        <v>151770811</v>
       </c>
     </row>
     <row r="73">
@@ -1408,12 +1408,12 @@
         <v>44690.66667</v>
       </c>
       <c r="B73" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.32)</f>
-        <v>239.32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.17)</f>
+        <v>398.17</v>
       </c>
       <c r="C73" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),842013.0)</f>
-        <v>842013</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.55586067E8)</f>
+        <v>155586067</v>
       </c>
     </row>
     <row r="74">
@@ -1422,12 +1422,12 @@
         <v>44691.66667</v>
       </c>
       <c r="B74" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.01)</f>
-        <v>246.01</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.09)</f>
+        <v>399.09</v>
       </c>
       <c r="C74" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),957607.0)</f>
-        <v>957607</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.324972E8)</f>
+        <v>132497200</v>
       </c>
     </row>
     <row r="75">
@@ -1436,12 +1436,12 @@
         <v>44692.66667</v>
       </c>
       <c r="B75" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.77)</f>
-        <v>244.77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.75)</f>
+        <v>392.75</v>
       </c>
       <c r="C75" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),864212.0)</f>
-        <v>864212</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.42360992E8)</f>
+        <v>142360992</v>
       </c>
     </row>
     <row r="76">
@@ -1450,12 +1450,12 @@
         <v>44693.66667</v>
       </c>
       <c r="B76" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.6)</f>
-        <v>247.6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.34)</f>
+        <v>392.34</v>
       </c>
       <c r="C76" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),746005.0)</f>
-        <v>746005</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.25090753E8)</f>
+        <v>125090753</v>
       </c>
     </row>
     <row r="77">
@@ -1464,12 +1464,12 @@
         <v>44694.66667</v>
       </c>
       <c r="B77" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.52)</f>
-        <v>255.52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.72)</f>
+        <v>401.72</v>
       </c>
       <c r="C77" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),515901.0)</f>
-        <v>515901</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.04174421E8)</f>
+        <v>104174421</v>
       </c>
     </row>
     <row r="78">
@@ -1478,12 +1478,12 @@
         <v>44697.66667</v>
       </c>
       <c r="B78" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.43)</f>
-        <v>253.43</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.09)</f>
+        <v>400.09</v>
       </c>
       <c r="C78" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),356372.0)</f>
-        <v>356372</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.8622444E7)</f>
+        <v>78622444</v>
       </c>
     </row>
     <row r="79">
@@ -1492,12 +1492,12 @@
         <v>44698.66667</v>
       </c>
       <c r="B79" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.85)</f>
-        <v>254.85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.32)</f>
+        <v>408.32</v>
       </c>
       <c r="C79" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436086.0)</f>
-        <v>436086</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.302971E7)</f>
+        <v>83029710</v>
       </c>
     </row>
     <row r="80">
@@ -1506,12 +1506,12 @@
         <v>44699.66667</v>
       </c>
       <c r="B80" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.0)</f>
-        <v>240</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),391.86)</f>
+        <v>391.86</v>
       </c>
       <c r="C80" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),620508.0)</f>
-        <v>620508</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.17674545E8)</f>
+        <v>117674545</v>
       </c>
     </row>
     <row r="81">
@@ -1520,12 +1520,12 @@
         <v>44700.66667</v>
       </c>
       <c r="B81" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.65)</f>
-        <v>248.65</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),389.46)</f>
+        <v>389.46</v>
       </c>
       <c r="C81" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),969682.0)</f>
-        <v>969682</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.8510715E7)</f>
+        <v>98510715</v>
       </c>
     </row>
     <row r="82">
@@ -1534,12 +1534,12 @@
         <v>44701.66667</v>
       </c>
       <c r="B82" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.04)</f>
-        <v>250.04</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),389.63)</f>
+        <v>389.63</v>
       </c>
       <c r="C82" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),634342.0)</f>
-        <v>634342</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.31432197E8)</f>
+        <v>131432197</v>
       </c>
     </row>
     <row r="83">
@@ -1548,12 +1548,12 @@
         <v>44704.66667</v>
       </c>
       <c r="B83" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.2)</f>
-        <v>250.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),396.92)</f>
+        <v>396.92</v>
       </c>
       <c r="C83" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),545273.0)</f>
-        <v>545273</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.6414878E7)</f>
+        <v>76414878</v>
       </c>
     </row>
     <row r="84">
@@ -1562,12 +1562,12 @@
         <v>44705.66667</v>
       </c>
       <c r="B84" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.25)</f>
-        <v>248.25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),393.89)</f>
+        <v>393.89</v>
       </c>
       <c r="C84" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),652886.0)</f>
-        <v>652886</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.1448831E7)</f>
+        <v>91448831</v>
       </c>
     </row>
     <row r="85">
@@ -1576,12 +1576,12 @@
         <v>44706.66667</v>
       </c>
       <c r="B85" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),249.83)</f>
-        <v>249.83</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.37)</f>
+        <v>397.37</v>
       </c>
       <c r="C85" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),501331.0)</f>
-        <v>501331</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.1472866E7)</f>
+        <v>91472866</v>
       </c>
     </row>
     <row r="86">
@@ -1590,12 +1590,12 @@
         <v>44707.66667</v>
       </c>
       <c r="B86" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.41)</f>
-        <v>256.41</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),405.31)</f>
+        <v>405.31</v>
       </c>
       <c r="C86" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),511958.0)</f>
-        <v>511958</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2168339E7)</f>
+        <v>82168339</v>
       </c>
     </row>
     <row r="87">
@@ -1604,12 +1604,12 @@
         <v>44708.66667</v>
       </c>
       <c r="B87" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.59)</f>
-        <v>266.59</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.26)</f>
+        <v>415.26</v>
       </c>
       <c r="C87" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),503645.0)</f>
-        <v>503645</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.476871E7)</f>
+        <v>84768710</v>
       </c>
     </row>
     <row r="88">
@@ -1618,12 +1618,12 @@
         <v>44712.66667</v>
       </c>
       <c r="B88" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.4)</f>
-        <v>262.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.93)</f>
+        <v>412.93</v>
       </c>
       <c r="C88" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1197117.0)</f>
-        <v>1197117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.593698E7)</f>
+        <v>95936980</v>
       </c>
     </row>
     <row r="89">
@@ -1632,12 +1632,12 @@
         <v>44713.66667</v>
       </c>
       <c r="B89" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.86)</f>
-        <v>260.86</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.59)</f>
+        <v>409.59</v>
       </c>
       <c r="C89" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),572759.0)</f>
-        <v>572759</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.6585813E7)</f>
+        <v>86585813</v>
       </c>
     </row>
     <row r="90">
@@ -1646,12 +1646,12 @@
         <v>44714.66667</v>
       </c>
       <c r="B90" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.54)</f>
-        <v>268.54</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.39)</f>
+        <v>417.39</v>
       </c>
       <c r="C90" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),490636.0)</f>
-        <v>490636</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9609633E7)</f>
+        <v>79609633</v>
       </c>
     </row>
     <row r="91">
@@ -1660,12 +1660,12 @@
         <v>44715.66667</v>
       </c>
       <c r="B91" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.79)</f>
-        <v>266.79</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.54)</f>
+        <v>410.54</v>
       </c>
       <c r="C91" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),500025.0)</f>
-        <v>500025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1874281E7)</f>
+        <v>71874281</v>
       </c>
     </row>
     <row r="92">
@@ -1674,12 +1674,12 @@
         <v>44718.66667</v>
       </c>
       <c r="B92" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.1)</f>
-        <v>267.1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.79)</f>
+        <v>411.79</v>
       </c>
       <c r="C92" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337994.0)</f>
-        <v>337994</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.7508858E7)</f>
+        <v>57508858</v>
       </c>
     </row>
     <row r="93">
@@ -1688,12 +1688,12 @@
         <v>44719.66667</v>
       </c>
       <c r="B93" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.32)</f>
-        <v>267.32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.74)</f>
+        <v>415.74</v>
       </c>
       <c r="C93" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),358731.0)</f>
-        <v>358731</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.9272373E7)</f>
+        <v>59272373</v>
       </c>
     </row>
     <row r="94">
@@ -1702,12 +1702,12 @@
         <v>44720.66667</v>
       </c>
       <c r="B94" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.3)</f>
-        <v>261.3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.22)</f>
+        <v>411.22</v>
       </c>
       <c r="C94" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310266.0)</f>
-        <v>310266</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.4349966E7)</f>
+        <v>64349966</v>
       </c>
     </row>
     <row r="95">
@@ -1716,12 +1716,12 @@
         <v>44721.66667</v>
       </c>
       <c r="B95" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.18)</f>
-        <v>256.18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.44)</f>
+        <v>401.44</v>
       </c>
       <c r="C95" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267194.0)</f>
-        <v>267194</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.6289796E7)</f>
+        <v>86289796</v>
       </c>
     </row>
     <row r="96">
@@ -1730,12 +1730,12 @@
         <v>44722.66667</v>
       </c>
       <c r="B96" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.64)</f>
-        <v>247.64</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),389.8)</f>
+        <v>389.8</v>
       </c>
       <c r="C96" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459091.0)</f>
-        <v>459091</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.32893864E8)</f>
+        <v>132893864</v>
       </c>
     </row>
     <row r="97">
@@ -1744,12 +1744,12 @@
         <v>44725.66667</v>
       </c>
       <c r="B97" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.74)</f>
-        <v>232.74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
       </c>
       <c r="C97" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),607032.0)</f>
-        <v>607032</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.70004861E8)</f>
+        <v>170004861</v>
       </c>
     </row>
     <row r="98">
@@ -1758,12 +1758,12 @@
         <v>44726.66667</v>
       </c>
       <c r="B98" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.6)</f>
-        <v>234.6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.87)</f>
+        <v>373.87</v>
       </c>
       <c r="C98" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),556835.0)</f>
-        <v>556835</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.04011831E8)</f>
+        <v>104011831</v>
       </c>
     </row>
     <row r="99">
@@ -1772,12 +1772,12 @@
         <v>44727.66667</v>
       </c>
       <c r="B99" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.74)</f>
-        <v>235.74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),379.2)</f>
+        <v>379.2</v>
       </c>
       <c r="C99" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),532211.0)</f>
-        <v>532211</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.25666797E8)</f>
+        <v>125666797</v>
       </c>
     </row>
     <row r="100">
@@ -1786,12 +1786,12 @@
         <v>44728.66667</v>
       </c>
       <c r="B100" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.07)</f>
-        <v>224.07</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.65)</f>
+        <v>366.65</v>
       </c>
       <c r="C100" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),608905.0)</f>
-        <v>608905</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.34473288E8)</f>
+        <v>134473288</v>
       </c>
     </row>
     <row r="101">
@@ -1800,12 +1800,12 @@
         <v>44729.66667</v>
       </c>
       <c r="B101" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.33)</f>
-        <v>230.33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.86)</f>
+        <v>365.86</v>
       </c>
       <c r="C101" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1036493.0)</f>
-        <v>1036493</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.11113904E8)</f>
+        <v>111113904</v>
       </c>
     </row>
     <row r="102">
@@ -1814,12 +1814,12 @@
         <v>44733.66667</v>
       </c>
       <c r="B102" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.28)</f>
-        <v>233.28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.07)</f>
+        <v>375.07</v>
       </c>
       <c r="C102" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),414597.0)</f>
-        <v>414597</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.6811861E7)</f>
+        <v>76811861</v>
       </c>
     </row>
     <row r="103">
@@ -1828,12 +1828,12 @@
         <v>44734.66667</v>
       </c>
       <c r="B103" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.14)</f>
-        <v>234.14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),374.39)</f>
+        <v>374.39</v>
       </c>
       <c r="C103" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377706.0)</f>
-        <v>377706</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0059424E7)</f>
+        <v>90059424</v>
       </c>
     </row>
     <row r="104">
@@ -1842,12 +1842,12 @@
         <v>44735.66667</v>
       </c>
       <c r="B104" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.11)</f>
-        <v>241.11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.06)</f>
+        <v>378.06</v>
       </c>
       <c r="C104" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387258.0)</f>
-        <v>387258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9292135E7)</f>
+        <v>79292135</v>
       </c>
     </row>
     <row r="105">
@@ -1856,12 +1856,12 @@
         <v>44736.66667</v>
       </c>
       <c r="B105" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.29)</f>
-        <v>251.29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.08)</f>
+        <v>390.08</v>
       </c>
       <c r="C105" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668849.0)</f>
-        <v>668849</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.8050333E7)</f>
+        <v>98050333</v>
       </c>
     </row>
     <row r="106">
@@ -1870,12 +1870,12 @@
         <v>44739.66667</v>
       </c>
       <c r="B106" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.16)</f>
-        <v>248.16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.59)</f>
+        <v>388.59</v>
       </c>
       <c r="C106" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),332670.0)</f>
-        <v>332670</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.6009617E7)</f>
+        <v>66009617</v>
       </c>
     </row>
     <row r="107">
@@ -1884,12 +1884,12 @@
         <v>44740.66667</v>
       </c>
       <c r="B107" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.41)</f>
-        <v>239.41</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.65)</f>
+        <v>380.65</v>
       </c>
       <c r="C107" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320265.0)</f>
-        <v>320265</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.6689824E7)</f>
+        <v>86689824</v>
       </c>
     </row>
     <row r="108">
@@ -1898,12 +1898,12 @@
         <v>44741.66667</v>
       </c>
       <c r="B108" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.14)</f>
-        <v>240.14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.34)</f>
+        <v>380.34</v>
       </c>
       <c r="C108" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360665.0)</f>
-        <v>360665</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.5675999E7)</f>
+        <v>65675999</v>
       </c>
     </row>
     <row r="109">
@@ -1912,12 +1912,12 @@
         <v>44742.66667</v>
       </c>
       <c r="B109" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.83)</f>
-        <v>241.83</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.25)</f>
+        <v>377.25</v>
       </c>
       <c r="C109" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),533191.0)</f>
-        <v>533191</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.12508273E8)</f>
+        <v>112508273</v>
       </c>
     </row>
     <row r="110">
@@ -1926,12 +1926,12 @@
         <v>44743.66667</v>
       </c>
       <c r="B110" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.28)</f>
-        <v>244.28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.24)</f>
+        <v>381.24</v>
       </c>
       <c r="C110" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),319159.0)</f>
-        <v>319159</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4839729E7)</f>
+        <v>74839729</v>
       </c>
     </row>
     <row r="111">
@@ -1940,12 +1940,12 @@
         <v>44747.66667</v>
       </c>
       <c r="B111" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.21)</f>
-        <v>241.21</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.96)</f>
+        <v>381.96</v>
       </c>
       <c r="C111" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366698.0)</f>
-        <v>366698</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1437965E7)</f>
+        <v>81437965</v>
       </c>
     </row>
     <row r="112">
@@ -1954,12 +1954,12 @@
         <v>44748.66667</v>
       </c>
       <c r="B112" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.77)</f>
-        <v>241.77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.25)</f>
+        <v>383.25</v>
       </c>
       <c r="C112" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349285.0)</f>
-        <v>349285</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0426244E7)</f>
+        <v>70426244</v>
       </c>
     </row>
     <row r="113">
@@ -1968,12 +1968,12 @@
         <v>44749.66667</v>
       </c>
       <c r="B113" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.02)</f>
-        <v>245.02</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.99)</f>
+        <v>388.99</v>
       </c>
       <c r="C113" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367594.0)</f>
-        <v>367594</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.4525919E7)</f>
+        <v>64525919</v>
       </c>
     </row>
     <row r="114">
@@ -1982,12 +1982,12 @@
         <v>44750.66667</v>
       </c>
       <c r="B114" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.63)</f>
-        <v>242.63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.67)</f>
+        <v>388.67</v>
       </c>
       <c r="C114" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),307020.0)</f>
-        <v>307020</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2397765E7)</f>
+        <v>72397765</v>
       </c>
     </row>
     <row r="115">
@@ -1996,12 +1996,12 @@
         <v>44753.66667</v>
       </c>
       <c r="B115" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.37)</f>
-        <v>244.37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.23)</f>
+        <v>384.23</v>
       </c>
       <c r="C115" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439994.0)</f>
-        <v>439994</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.8366945E7)</f>
+        <v>58366945</v>
       </c>
     </row>
     <row r="116">
@@ -2010,12 +2010,12 @@
         <v>44754.66667</v>
       </c>
       <c r="B116" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.75)</f>
-        <v>237.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.83)</f>
+        <v>380.83</v>
       </c>
       <c r="C116" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376703.0)</f>
-        <v>376703</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.2219178E7)</f>
+        <v>62219178</v>
       </c>
     </row>
     <row r="117">
@@ -2024,12 +2024,12 @@
         <v>44755.66667</v>
       </c>
       <c r="B117" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.27)</f>
-        <v>238.27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.83)</f>
+        <v>378.83</v>
       </c>
       <c r="C117" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260903.0)</f>
-        <v>260903</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.4224649E7)</f>
+        <v>84224649</v>
       </c>
     </row>
     <row r="118">
@@ -2038,12 +2038,12 @@
         <v>44756.66667</v>
       </c>
       <c r="B118" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.8)</f>
-        <v>235.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.91)</f>
+        <v>377.91</v>
       </c>
       <c r="C118" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),332700.0)</f>
-        <v>332700</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.9704819E7)</f>
+        <v>89704819</v>
       </c>
     </row>
     <row r="119">
@@ -2052,12 +2052,12 @@
         <v>44757.66667</v>
       </c>
       <c r="B119" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.69)</f>
-        <v>240.69</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.13)</f>
+        <v>385.13</v>
       </c>
       <c r="C119" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338878.0)</f>
-        <v>338878</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9060383E7)</f>
+        <v>79060383</v>
       </c>
     </row>
     <row r="120">
@@ -2066,12 +2066,12 @@
         <v>44760.66667</v>
       </c>
       <c r="B120" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.77)</f>
-        <v>238.77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.95)</f>
+        <v>381.95</v>
       </c>
       <c r="C120" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254069.0)</f>
-        <v>254069</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.3203626E7)</f>
+        <v>63203626</v>
       </c>
     </row>
     <row r="121">
@@ -2080,12 +2080,208 @@
         <v>44761.66667</v>
       </c>
       <c r="B121" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.57)</f>
-        <v>247.57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.27)</f>
+        <v>392.27</v>
       </c>
       <c r="C121" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387155.0)</f>
-        <v>387155</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.8505972E7)</f>
+        <v>78505972</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44762.66666666667)</f>
+        <v>44762.66667</v>
+      </c>
+      <c r="B122" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.77)</f>
+        <v>394.77</v>
+      </c>
+      <c r="C122" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1843769E7)</f>
+        <v>71843769</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44763.66666666667)</f>
+        <v>44763.66667</v>
+      </c>
+      <c r="B123" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.79)</f>
+        <v>398.79</v>
+      </c>
+      <c r="C123" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.4903856E7)</f>
+        <v>64903856</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44764.66666666667)</f>
+        <v>44764.66667</v>
+      </c>
+      <c r="B124" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),395.09)</f>
+        <v>395.09</v>
+      </c>
+      <c r="C124" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2197332E7)</f>
+        <v>72197332</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44767.66666666667)</f>
+        <v>44767.66667</v>
+      </c>
+      <c r="B125" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),395.57)</f>
+        <v>395.57</v>
+      </c>
+      <c r="C125" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.3631485E7)</f>
+        <v>53631485</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44768.66666666667)</f>
+        <v>44768.66667</v>
+      </c>
+      <c r="B126" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.89)</f>
+        <v>390.89</v>
+      </c>
+      <c r="C126" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.2946393E7)</f>
+        <v>52946393</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44769.66666666667)</f>
+        <v>44769.66667</v>
+      </c>
+      <c r="B127" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.04)</f>
+        <v>401.04</v>
+      </c>
+      <c r="C127" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2342106E7)</f>
+        <v>82342106</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44770.66666666667)</f>
+        <v>44770.66667</v>
+      </c>
+      <c r="B128" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),406.07)</f>
+        <v>406.07</v>
+      </c>
+      <c r="C128" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3966563E7)</f>
+        <v>73966563</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44771.66666666667)</f>
+        <v>44771.66667</v>
+      </c>
+      <c r="B129" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.99)</f>
+        <v>411.99</v>
+      </c>
+      <c r="C129" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.7003672E7)</f>
+        <v>87003672</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44774.66666666667)</f>
+        <v>44774.66667</v>
+      </c>
+      <c r="B130" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.77)</f>
+        <v>410.77</v>
+      </c>
+      <c r="C130" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.9997471E7)</f>
+        <v>69997471</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44775.66666666667)</f>
+        <v>44775.66667</v>
+      </c>
+      <c r="B131" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.06)</f>
+        <v>408.06</v>
+      </c>
+      <c r="C131" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.3435418E7)</f>
+        <v>63435418</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44776.66666666667)</f>
+        <v>44776.66667</v>
+      </c>
+      <c r="B132" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),414.45)</f>
+        <v>414.45</v>
+      </c>
+      <c r="C132" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.7820555E7)</f>
+        <v>67820555</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44777.66666666667)</f>
+        <v>44777.66667</v>
+      </c>
+      <c r="B133" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),414.17)</f>
+        <v>414.17</v>
+      </c>
+      <c r="C133" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.5656574E7)</f>
+        <v>45656574</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44778.66666666667)</f>
+        <v>44778.66667</v>
+      </c>
+      <c r="B134" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.47)</f>
+        <v>413.47</v>
+      </c>
+      <c r="C134" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.6814929E7)</f>
+        <v>56814929</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="14">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44781.66666666667)</f>
+        <v>44781.66667</v>
+      </c>
+      <c r="B135" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.99)</f>
+        <v>412.99</v>
+      </c>
+      <c r="C135" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.4025965E7)</f>
+        <v>54025965</v>
       </c>
     </row>
   </sheetData>
